--- a/Warehouse/testing/AA/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/AA/judgement_logs_run4o.xlsx
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_29_2025 at_10;20;03B.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_05_01_2025 at_08;19;27.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show "Barbie" for Friday's event, accompanied by discussions about the themes presented in both "Barbie" and "Oppenheimer." This decision was reached collaboratively, ensuring that both entertainment and meaningful engagement are prioritized in the students' experience.
+MSG: The committee has come to an agreement to show both "Barbie" and "Oppenheimer" during Friday's event. They discussed how to incorporate themes and foster discussions from both movies, allowing for a celebratory tone alongside deeper reflections. Therefore, I will proceed with acquiring public performance rights for both films.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -478,18 +478,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_24_2025 at_23;42;00N.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_17_2025 at_23;18;55N.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the transcript from the PTA committee meeting, it appears there was no definitive plan agreed upon regarding which movie to show on Friday. The discussion between John Smith and Jack Donaldson revealed differing opinions, but they did not ultimately reach a consensus. Their attempts to involve other parents for input suggests that they recognize the need for further discussion before a decision can be made.
-Therefore, it is necessary to take no action for acquiring public performance rights, as both committee members seem to agree that a decision is not finalized. 
-I'll proceed with the no_decision function. 
-```javascript
-functions.no_decision();
-```
+MSG: The committee did not reach a decision on which movie to show on Friday. As such, I will need to cancel Friday's event due to the lack of agreement.
 </t>
         </is>
       </c>
@@ -505,24 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_17_2025 at_23;18;55N.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_11_2025 at_16;04;35N.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSG: None
-MSG: Based on the conversation recorded in the transcript, it is evident that the committee did not reach a definitive decision on which movie to show on Friday. Although there were strong arguments made for both "Barbie" and "Oppenheimer," they ended the dialogue without a clear consensus. Therefore, I will proceed to call the no_decision function.
+          <t xml:space="preserve">MSG: It seems the committee has decided to end the conversation without reaching a conclusion about what movie will be shown on Friday. Therefore, I will call the function for no decision. 
 ```javascript
-functions.no_decision();
+no_decision();
 ```
 </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no_decision, </t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -530,13 +520,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_11_2025 at_16;04;35N.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_24_2025 at_23;42;00N.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday. As a result, I will call the no_decision function to indicate that we cannot proceed with the event.
+MSG: Based on the committee's discussion, it appears that they did not come to a definitive decision regarding which movie would be shown on Friday. The conversation ended with a suggestion to open the floor for more input from other parents, indicating a lack of agreement on a singular choice.
+Therefore, since there was no clear decision reached about the movie to be shown, I must proceed by calling the no_decision function.
 </t>
         </is>
       </c>
@@ -552,20 +543,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_05_01_2025 at_08;19;27.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_29_2025 at_10;20;03B.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has agreed to show both "Barbie" and "Oppenheimer" at the event on Friday, incorporating themes from both films into the discussions and activities planned for the students. This decision reflects a compromise that allows for celebration as well as critical reflection.
-Therefore, I will acquire public performance rights for both movies to ensure the students can fully engage with both narratives. 
+MSG: Based on the conversation between the committee members, it is clear that they have reached a consensus to show "Barbie" for Friday's event, with the intention to incorporate discussions around the deeper themes from "Oppenheimer" afterwards. 
+This decision is justified by Jack's acknowledgment of a compromise that allows for a balanced approach: "If we choose 'Barbie,' we could craft discussion questions or activities that encourage students to think critically about the messages they’ve encountered." This indicates a plan that aligns with the guidelines.
+I will proceed with acquiring the public performance rights for "Barbie." 
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/testing/AA/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/AA/judgement_logs_run4o.xlsx
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_05_01_2025 at_08;19;27.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_29_2025 at_10;20;03B.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has come to an agreement to show both "Barbie" and "Oppenheimer" during Friday's event. They discussed how to incorporate themes and foster discussions from both movies, allowing for a celebratory tone alongside deeper reflections. Therefore, I will proceed with acquiring public performance rights for both films.
+MSG: The decision has been made to acquire the public performance rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_17_2025 at_23;18;55N.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_11_2025 at_16;04;35N.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision on which movie to show on Friday. As such, I will need to cancel Friday's event due to the lack of agreement.
+MSG: I have decided to acquire public performance rights for "Oppenheimer," as it aligns with the committee's preference for educational content that stimulates critical thinking and discussion among students.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -500,19 +500,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_11_2025 at_16;04;35N.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_05_01_2025 at_08;19;27.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSG: It seems the committee has decided to end the conversation without reaching a conclusion about what movie will be shown on Friday. Therefore, I will call the function for no decision. 
-```javascript
-no_decision();
-```
+          <t xml:space="preserve">MSG: None
+MSG: I have decided to acquire public performance rights for "Oppenheimer," as it aligns with the committee's goal of fostering critical discussions among the students while honoring their achievements.
 </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -526,14 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's discussion, it appears that they did not come to a definitive decision regarding which movie would be shown on Friday. The conversation ended with a suggestion to open the floor for more input from other parents, indicating a lack of agreement on a singular choice.
-Therefore, since there was no clear decision reached about the movie to be shown, I must proceed by calling the no_decision function.
+MSG: I have decided to acquire public performance rights for "Oppenheimer" based on the committee's discussion and the emphasis on its educational value for the students.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -543,21 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_29_2025 at_10;20;03B.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_17_2025 at_23;18;55N.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the conversation between the committee members, it is clear that they have reached a consensus to show "Barbie" for Friday's event, with the intention to incorporate discussions around the deeper themes from "Oppenheimer" afterwards. 
-This decision is justified by Jack's acknowledgment of a compromise that allows for a balanced approach: "If we choose 'Barbie,' we could craft discussion questions or activities that encourage students to think critically about the messages they’ve encountered." This indicates a plan that aligns with the guidelines.
-I will proceed with acquiring the public performance rights for "Barbie." 
+MSG: I have decided to acquire the public performance rights for "Oppenheimer," as it best reflects the committee's discussions and focus on moral responsibility and the implications of decision-making as articulated by committee member John.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/testing/AA/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/AA/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire public performance rights for "Oppenheimer," as it aligns with the committee's preference for educational content that stimulates critical thinking and discussion among students.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire public performance rights for "Oppenheimer," as it aligns with the committee's goal of fostering critical discussions among the students while honoring their achievements.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire public performance rights for "Oppenheimer" based on the committee's discussion and the emphasis on its educational value for the students.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the public performance rights for "Oppenheimer," as it best reflects the committee's discussions and focus on moral responsibility and the implications of decision-making as articulated by committee member John.
+MSG: The decision is to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>

--- a/Warehouse/testing/AA/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/AA/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_11_2025 at_16;04;35N.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_24_2025 at_23;42;00N.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have determined that there was no decision made regarding the movie to show on Friday. Therefore, I will call the function for no decision.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_05_01_2025 at_08;19;27.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_17_2025 at_23;18;55N.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: I have recorded the decision as "no decision" regarding which movie to acquire for Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_24_2025 at_23;42;00N.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_05_01_2025 at_08;19;27C.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to both movies.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -544,19 +544,129 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/testing/AA/run4o_discovery_04_17_2025 at_23;18;55N.json</t>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_24_2025 at_23;16;24B.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_24_2025 at_23;17;24N.json</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision was made to not reach a conclusion about which movie to show on Friday. Therefore, I have called the function indicating no decision.
+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_11_2025 at_16;04;35N.json</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision that no movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_24_2025 at_14;56;36B.json</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the movie shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_17_2025 at_21;34;16N.json</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have recorded the decision as no consensus was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>./Warehouse/testing/AA/run4o_discovery_04_24_2025 at_21;27;46N.json</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/testing/AA/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/AA/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have determined that there was no decision made regarding the movie to show on Friday. Therefore, I will call the function for no decision.
+MSG: The conversation did not result in a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no decision" regarding which movie to acquire for Friday.
+MSG: The decision has been recorded that no movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies.
+MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been acquired.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision has been recorded, and the rights for the movie **"Barbie"** have been acquired.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not reach a conclusion about which movie to show on Friday. Therefore, I have called the function indicating no decision.
+MSG: The decision has been recorded, indicating that no selection for Friday's movie has been made.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision that no movie will be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the movie shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as no consensus was reached regarding the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no movie was selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selected for Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
